--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H2">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>83.67306329335381</v>
+        <v>218.9722396666667</v>
       </c>
       <c r="N2">
-        <v>83.67306329335381</v>
+        <v>656.9167190000001</v>
       </c>
       <c r="O2">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256378</v>
       </c>
       <c r="P2">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256379</v>
       </c>
       <c r="Q2">
-        <v>1067.082051870996</v>
+        <v>6340.62206794108</v>
       </c>
       <c r="R2">
-        <v>1067.082051870996</v>
+        <v>57065.59861146972</v>
       </c>
       <c r="S2">
-        <v>0.3083380298299542</v>
+        <v>0.5194900539072755</v>
       </c>
       <c r="T2">
-        <v>0.3083380298299542</v>
+        <v>0.5194900539072757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H3">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.15486510690857</v>
+        <v>5.232695</v>
       </c>
       <c r="N3">
-        <v>5.15486510690857</v>
+        <v>15.698085</v>
       </c>
       <c r="O3">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018391</v>
       </c>
       <c r="P3">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018392</v>
       </c>
       <c r="Q3">
-        <v>65.73996240717432</v>
+        <v>151.5193955284533</v>
       </c>
       <c r="R3">
-        <v>65.73996240717432</v>
+        <v>1363.67455975608</v>
       </c>
       <c r="S3">
-        <v>0.01899584990131005</v>
+        <v>0.01241405308621928</v>
       </c>
       <c r="T3">
-        <v>0.01899584990131005</v>
+        <v>0.01241405308621928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H4">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I4">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J4">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.11489164870163</v>
+        <v>3.718869666666667</v>
       </c>
       <c r="N4">
-        <v>3.11489164870163</v>
+        <v>11.156609</v>
       </c>
       <c r="O4">
-        <v>0.03273146551343512</v>
+        <v>0.01606731857429249</v>
       </c>
       <c r="P4">
-        <v>0.03273146551343512</v>
+        <v>0.0160673185742925</v>
       </c>
       <c r="Q4">
-        <v>39.72419367746966</v>
+        <v>107.6846412684925</v>
       </c>
       <c r="R4">
-        <v>39.72419367746966</v>
+        <v>969.1617714164321</v>
       </c>
       <c r="S4">
-        <v>0.01147847964795053</v>
+        <v>0.008822651704853921</v>
       </c>
       <c r="T4">
-        <v>0.01147847964795053</v>
+        <v>0.008822651704853926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H5">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I5">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J5">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.22223290056177</v>
+        <v>3.531721333333333</v>
       </c>
       <c r="N5">
-        <v>3.22223290056177</v>
+        <v>10.595164</v>
       </c>
       <c r="O5">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="P5">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="Q5">
-        <v>41.09311598982413</v>
+        <v>102.2655212278969</v>
       </c>
       <c r="R5">
-        <v>41.09311598982413</v>
+        <v>920.3896910510721</v>
       </c>
       <c r="S5">
-        <v>0.01187403574229357</v>
+        <v>0.008378660731751636</v>
       </c>
       <c r="T5">
-        <v>0.01187403574229357</v>
+        <v>0.00837866073175164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.6827628451534</v>
+        <v>12.691493</v>
       </c>
       <c r="H6">
-        <v>12.6827628451534</v>
+        <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J6">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.67306329335381</v>
+        <v>218.9722396666667</v>
       </c>
       <c r="N6">
-        <v>83.67306329335381</v>
+        <v>656.9167190000001</v>
       </c>
       <c r="O6">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256378</v>
       </c>
       <c r="P6">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256379</v>
       </c>
       <c r="Q6">
-        <v>1061.205618277116</v>
+        <v>2779.084646923823</v>
       </c>
       <c r="R6">
-        <v>1061.205618277116</v>
+        <v>25011.7618223144</v>
       </c>
       <c r="S6">
-        <v>0.3066400086200704</v>
+        <v>0.2276916708760939</v>
       </c>
       <c r="T6">
-        <v>0.3066400086200704</v>
+        <v>0.2276916708760939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.6827628451534</v>
+        <v>12.691493</v>
       </c>
       <c r="H7">
-        <v>12.6827628451534</v>
+        <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J7">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15486510690857</v>
+        <v>5.232695</v>
       </c>
       <c r="N7">
-        <v>5.15486510690857</v>
+        <v>15.698085</v>
       </c>
       <c r="O7">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018391</v>
       </c>
       <c r="P7">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018392</v>
       </c>
       <c r="Q7">
-        <v>65.37793164967772</v>
+        <v>66.41071196363499</v>
       </c>
       <c r="R7">
-        <v>65.37793164967772</v>
+        <v>597.6964076727149</v>
       </c>
       <c r="S7">
-        <v>0.01889123952921297</v>
+        <v>0.005441059878405905</v>
       </c>
       <c r="T7">
-        <v>0.01889123952921297</v>
+        <v>0.005441059878405906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.6827628451534</v>
+        <v>12.691493</v>
       </c>
       <c r="H8">
-        <v>12.6827628451534</v>
+        <v>38.074479</v>
       </c>
       <c r="I8">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J8">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.11489164870163</v>
+        <v>3.718869666666667</v>
       </c>
       <c r="N8">
-        <v>3.11489164870163</v>
+        <v>11.156609</v>
       </c>
       <c r="O8">
-        <v>0.03273146551343512</v>
+        <v>0.01606731857429249</v>
       </c>
       <c r="P8">
-        <v>0.03273146551343512</v>
+        <v>0.0160673185742925</v>
       </c>
       <c r="Q8">
-        <v>39.50543206883165</v>
+        <v>47.19800834241234</v>
       </c>
       <c r="R8">
-        <v>39.50543206883165</v>
+        <v>424.782075081711</v>
       </c>
       <c r="S8">
-        <v>0.01141526752354866</v>
+        <v>0.003866954320158301</v>
       </c>
       <c r="T8">
-        <v>0.01141526752354866</v>
+        <v>0.003866954320158302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.6827628451534</v>
+        <v>12.691493</v>
       </c>
       <c r="H9">
-        <v>12.6827628451534</v>
+        <v>38.074479</v>
       </c>
       <c r="I9">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J9">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.22223290056177</v>
+        <v>3.531721333333333</v>
       </c>
       <c r="N9">
-        <v>3.22223290056177</v>
+        <v>10.595164</v>
       </c>
       <c r="O9">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="P9">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="Q9">
-        <v>40.86681570967568</v>
+        <v>44.82281657995067</v>
       </c>
       <c r="R9">
-        <v>40.86681570967568</v>
+        <v>403.405349219556</v>
       </c>
       <c r="S9">
-        <v>0.0118086452857597</v>
+        <v>0.003672353777262044</v>
       </c>
       <c r="T9">
-        <v>0.0118086452857597</v>
+        <v>0.003672353777262044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.350677823994581</v>
+        <v>0.4888703333333334</v>
       </c>
       <c r="H10">
-        <v>0.350677823994581</v>
+        <v>1.466611</v>
       </c>
       <c r="I10">
-        <v>0.009643064562905933</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="J10">
-        <v>0.009643064562905933</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>83.67306329335381</v>
+        <v>218.9722396666667</v>
       </c>
       <c r="N10">
-        <v>83.67306329335381</v>
+        <v>656.9167190000001</v>
       </c>
       <c r="O10">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256378</v>
       </c>
       <c r="P10">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256379</v>
       </c>
       <c r="Q10">
-        <v>29.34228776267416</v>
+        <v>107.0490317965899</v>
       </c>
       <c r="R10">
-        <v>29.34228776267416</v>
+        <v>963.4412861693091</v>
       </c>
       <c r="S10">
-        <v>0.008478582489118933</v>
+        <v>0.008770575931328147</v>
       </c>
       <c r="T10">
-        <v>0.008478582489118933</v>
+        <v>0.008770575931328149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.350677823994581</v>
+        <v>0.4888703333333334</v>
       </c>
       <c r="H11">
-        <v>0.350677823994581</v>
+        <v>1.466611</v>
       </c>
       <c r="I11">
-        <v>0.009643064562905933</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="J11">
-        <v>0.009643064562905933</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.15486510690857</v>
+        <v>5.232695</v>
       </c>
       <c r="N11">
-        <v>5.15486510690857</v>
+        <v>15.698085</v>
       </c>
       <c r="O11">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018391</v>
       </c>
       <c r="P11">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018392</v>
       </c>
       <c r="Q11">
-        <v>1.80769687867629</v>
+        <v>2.558109348881667</v>
       </c>
       <c r="R11">
-        <v>1.80769687867629</v>
+        <v>23.022984139935</v>
       </c>
       <c r="S11">
-        <v>0.0005223419259310993</v>
+        <v>0.0002095870640627483</v>
       </c>
       <c r="T11">
-        <v>0.0005223419259310993</v>
+        <v>0.0002095870640627483</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.350677823994581</v>
+        <v>0.4888703333333334</v>
       </c>
       <c r="H12">
-        <v>0.350677823994581</v>
+        <v>1.466611</v>
       </c>
       <c r="I12">
-        <v>0.009643064562905933</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="J12">
-        <v>0.009643064562905933</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.11489164870163</v>
+        <v>3.718869666666667</v>
       </c>
       <c r="N12">
-        <v>3.11489164870163</v>
+        <v>11.156609</v>
       </c>
       <c r="O12">
-        <v>0.03273146551343512</v>
+        <v>0.01606731857429249</v>
       </c>
       <c r="P12">
-        <v>0.03273146551343512</v>
+        <v>0.0160673185742925</v>
       </c>
       <c r="Q12">
-        <v>1.09232342534558</v>
+        <v>1.818045053566556</v>
       </c>
       <c r="R12">
-        <v>1.09232342534558</v>
+        <v>16.362405482099</v>
       </c>
       <c r="S12">
-        <v>0.0003156316351845838</v>
+        <v>0.0001489532592800991</v>
       </c>
       <c r="T12">
-        <v>0.0003156316351845838</v>
+        <v>0.0001489532592800991</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.350677823994581</v>
+        <v>0.4888703333333334</v>
       </c>
       <c r="H13">
-        <v>0.350677823994581</v>
+        <v>1.466611</v>
       </c>
       <c r="I13">
-        <v>0.009643064562905933</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="J13">
-        <v>0.009643064562905933</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.22223290056177</v>
+        <v>3.531721333333333</v>
       </c>
       <c r="N13">
-        <v>3.22223290056177</v>
+        <v>10.595164</v>
       </c>
       <c r="O13">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="P13">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="Q13">
-        <v>1.129965621972749</v>
+        <v>1.726553785467111</v>
       </c>
       <c r="R13">
-        <v>1.129965621972749</v>
+        <v>15.538984069204</v>
       </c>
       <c r="S13">
-        <v>0.0003265085126713172</v>
+        <v>0.0001414573380143708</v>
       </c>
       <c r="T13">
-        <v>0.0003265085126713172</v>
+        <v>0.0001414573380143708</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.5793725152376</v>
+        <v>10.59691233333333</v>
       </c>
       <c r="H14">
-        <v>10.5793725152376</v>
+        <v>31.790737</v>
       </c>
       <c r="I14">
-        <v>0.290915379356994</v>
+        <v>0.200951968125294</v>
       </c>
       <c r="J14">
-        <v>0.290915379356994</v>
+        <v>0.200951968125294</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>83.67306329335381</v>
+        <v>218.9722396666667</v>
       </c>
       <c r="N14">
-        <v>83.67306329335381</v>
+        <v>656.9167190000001</v>
       </c>
       <c r="O14">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256378</v>
       </c>
       <c r="P14">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256379</v>
       </c>
       <c r="Q14">
-        <v>885.2085060714434</v>
+        <v>2320.429627181323</v>
       </c>
       <c r="R14">
-        <v>885.2085060714434</v>
+        <v>20883.8666446319</v>
       </c>
       <c r="S14">
-        <v>0.255784872655494</v>
+        <v>0.1901138562109402</v>
       </c>
       <c r="T14">
-        <v>0.255784872655494</v>
+        <v>0.1901138562109402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.5793725152376</v>
+        <v>10.59691233333333</v>
       </c>
       <c r="H15">
-        <v>10.5793725152376</v>
+        <v>31.790737</v>
       </c>
       <c r="I15">
-        <v>0.290915379356994</v>
+        <v>0.200951968125294</v>
       </c>
       <c r="J15">
-        <v>0.290915379356994</v>
+        <v>0.200951968125294</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.15486510690857</v>
+        <v>5.232695</v>
       </c>
       <c r="N15">
-        <v>5.15486510690857</v>
+        <v>15.698085</v>
       </c>
       <c r="O15">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018391</v>
       </c>
       <c r="P15">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018392</v>
       </c>
       <c r="Q15">
-        <v>54.53523823178585</v>
+        <v>55.45041018207166</v>
       </c>
       <c r="R15">
-        <v>54.53523823178585</v>
+        <v>499.053691638645</v>
       </c>
       <c r="S15">
-        <v>0.015758195804355</v>
+        <v>0.00454307736149598</v>
       </c>
       <c r="T15">
-        <v>0.015758195804355</v>
+        <v>0.004543077361495981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.5793725152376</v>
+        <v>10.59691233333333</v>
       </c>
       <c r="H16">
-        <v>10.5793725152376</v>
+        <v>31.790737</v>
       </c>
       <c r="I16">
-        <v>0.290915379356994</v>
+        <v>0.200951968125294</v>
       </c>
       <c r="J16">
-        <v>0.290915379356994</v>
+        <v>0.200951968125294</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.11489164870163</v>
+        <v>3.718869666666667</v>
       </c>
       <c r="N16">
-        <v>3.11489164870163</v>
+        <v>11.156609</v>
       </c>
       <c r="O16">
-        <v>0.03273146551343512</v>
+        <v>0.01606731857429249</v>
       </c>
       <c r="P16">
-        <v>0.03273146551343512</v>
+        <v>0.0160673185742925</v>
       </c>
       <c r="Q16">
-        <v>32.95359909621715</v>
+        <v>39.40853583675923</v>
       </c>
       <c r="R16">
-        <v>32.95359909621715</v>
+        <v>354.676822530833</v>
       </c>
       <c r="S16">
-        <v>0.009522086706751344</v>
+        <v>0.00322875929000017</v>
       </c>
       <c r="T16">
-        <v>0.009522086706751344</v>
+        <v>0.00322875929000017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.5793725152376</v>
+        <v>10.59691233333333</v>
       </c>
       <c r="H17">
-        <v>10.5793725152376</v>
+        <v>31.790737</v>
       </c>
       <c r="I17">
-        <v>0.290915379356994</v>
+        <v>0.200951968125294</v>
       </c>
       <c r="J17">
-        <v>0.290915379356994</v>
+        <v>0.200951968125294</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.22223290056177</v>
+        <v>3.531721333333333</v>
       </c>
       <c r="N17">
-        <v>3.22223290056177</v>
+        <v>10.595164</v>
       </c>
       <c r="O17">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="P17">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="Q17">
-        <v>34.08920218589752</v>
+        <v>37.42534135509645</v>
       </c>
       <c r="R17">
-        <v>34.08920218589752</v>
+        <v>336.828072195868</v>
       </c>
       <c r="S17">
-        <v>0.009850224190393683</v>
+        <v>0.00306627526285768</v>
       </c>
       <c r="T17">
-        <v>0.009850224190393683</v>
+        <v>0.00306627526285768</v>
       </c>
     </row>
   </sheetData>
